--- a/Test/Test.xlsx
+++ b/Test/Test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Tabu Search</t>
   </si>
@@ -32,16 +32,10 @@
     <t>GAP % SA</t>
   </si>
   <si>
-    <t>CDF TS</t>
-  </si>
-  <si>
-    <t>CDF SA</t>
-  </si>
-  <si>
-    <t>Z Score TS</t>
-  </si>
-  <si>
-    <t>Z Score SA</t>
+    <t>CDF</t>
+  </si>
+  <si>
+    <t>Z Score</t>
   </si>
   <si>
     <t>Valori Attesi TS</t>
@@ -62,12 +56,18 @@
     <t>Gap5.30</t>
   </si>
   <si>
+    <t>Media CDF</t>
+  </si>
+  <si>
     <t>Gap5.30-2</t>
   </si>
   <si>
     <t>Gap8.24</t>
   </si>
   <si>
+    <t>Dev. St. CDF</t>
+  </si>
+  <si>
     <t>Gap8.24-2</t>
   </si>
   <si>
@@ -98,19 +98,50 @@
     <t>t Student</t>
   </si>
   <si>
+    <t>Non posso utilizzare la t di Student perché i dati non sono distribuiti normalmente</t>
+  </si>
+  <si>
     <t>Livello Signif.</t>
+  </si>
+  <si>
+    <t>SA – TS</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Rank ABS</t>
+  </si>
+  <si>
+    <t>Somma positivi</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Somma negativi</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Critical 2T (0.05)</t>
+  </si>
+  <si>
+    <t>Il test di Wilcoxon ha dimostrato che ci sono delle differenze sostanziali tra i risultati dei due algoritmi: il Simulated Annealing è inferiore al Tabu Search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -148,6 +179,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -157,12 +194,82 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -191,11 +298,19 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
@@ -204,47 +319,83 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -252,12 +403,80 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -332,7 +551,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -346,11 +565,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>valori_ts</c:f>
+              <c:f>dati_ts</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>valori_ts</c:v>
+                  <c:v>dati_ts</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -382,34 +601,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-0.420588586420774</c:v>
+                  <c:v>-1.48630108292059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.158721011927204</c:v>
+                  <c:v>-1.15601195338268</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.642556468647565</c:v>
+                  <c:v>-0.82572282384477</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.596083176164086</c:v>
+                  <c:v>-0.495433694306862</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.502397539773163</c:v>
+                  <c:v>-0.165144564768954</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15707401528415</c:v>
+                  <c:v>0.165144564768954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.207726936562337</c:v>
+                  <c:v>0.495433694306862</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.204244493768547</c:v>
+                  <c:v>0.82572282384477</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.187477176613258</c:v>
+                  <c:v>1.15601195338268</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.76272137459279</c:v>
+                  <c:v>1.48630108292059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -496,34 +715,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-0.420588586420774</c:v>
+                  <c:v>-1.48630108292059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.158721011927204</c:v>
+                  <c:v>-1.15601195338268</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.642556468647565</c:v>
+                  <c:v>-0.82572282384477</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.596083176164086</c:v>
+                  <c:v>-0.495433694306862</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.502397539773163</c:v>
+                  <c:v>-0.165144564768954</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15707401528415</c:v>
+                  <c:v>0.165144564768954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.207726936562337</c:v>
+                  <c:v>0.495433694306862</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.204244493768547</c:v>
+                  <c:v>0.82572282384477</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.187477176613258</c:v>
+                  <c:v>1.15601195338268</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.76272137459279</c:v>
+                  <c:v>1.48630108292059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,34 +754,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-0.393700787401573</c:v>
+                  <c:v>-14.0990136731528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.97397769516729</c:v>
+                  <c:v>-9.85141793044846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.24825986078886</c:v>
+                  <c:v>-5.60382218774408</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.65060240963855</c:v>
+                  <c:v>-1.35622644503969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.44578313253012</c:v>
+                  <c:v>2.89136929766469</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.03517587939699</c:v>
+                  <c:v>7.13896504036907</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.34375</c:v>
+                  <c:v>11.3865607830735</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.38853503184713</c:v>
+                  <c:v>15.6341565257778</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.60416666666667</c:v>
+                  <c:v>19.8817522684822</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.5444126074499</c:v>
+                  <c:v>24.1293480111866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -574,11 +793,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>valori_sa</c:f>
+              <c:f>dati_sa</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>valori_sa</c:v>
+                  <c:v>dati_sa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -605,39 +824,39 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$L$2:$L$11</c:f>
+              <c:f>Foglio1!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-0.47785185016604</c:v>
+                  <c:v>-1.48630108292059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.896957487589738</c:v>
+                  <c:v>-1.15601195338268</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.524677929433358</c:v>
+                  <c:v>-0.82572282384477</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.174459573528387</c:v>
+                  <c:v>-0.495433694306862</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.207575877037611</c:v>
+                  <c:v>-0.165144564768954</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.414635980762997</c:v>
+                  <c:v>0.165144564768954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.839976537540576</c:v>
+                  <c:v>0.495433694306862</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.406168232158211</c:v>
+                  <c:v>0.82572282384477</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.386639639675593</c:v>
+                  <c:v>1.15601195338268</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.53502813271304</c:v>
+                  <c:v>1.48630108292059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,39 +938,39 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$L$2:$L$11</c:f>
+              <c:f>Foglio1!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-0.47785185016604</c:v>
+                  <c:v>-1.48630108292059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.896957487589738</c:v>
+                  <c:v>-1.15601195338268</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.524677929433358</c:v>
+                  <c:v>-0.82572282384477</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.174459573528387</c:v>
+                  <c:v>-0.495433694306862</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.207575877037611</c:v>
+                  <c:v>-0.165144564768954</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.414635980762997</c:v>
+                  <c:v>0.165144564768954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.839976537540576</c:v>
+                  <c:v>0.495433694306862</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.406168232158211</c:v>
+                  <c:v>0.82572282384477</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.386639639675593</c:v>
+                  <c:v>1.15601195338268</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.53502813271304</c:v>
+                  <c:v>1.48630108292059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -763,45 +982,45 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.8740157480315</c:v>
+                  <c:v>-6.801524053921</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.8810408921933</c:v>
+                  <c:v>-1.99496452742315</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.19257540603248</c:v>
+                  <c:v>2.8115949990747</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.289156626506</c:v>
+                  <c:v>7.61815452557256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.8072289156627</c:v>
+                  <c:v>12.4247140520704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.79396984924623</c:v>
+                  <c:v>17.2312735785683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.60416666666667</c:v>
+                  <c:v>22.0378331050661</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.9171974522293</c:v>
+                  <c:v>26.844392631564</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.20138888888889</c:v>
+                  <c:v>31.6509521580618</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.7191977077364</c:v>
+                  <c:v>36.4575116845597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="22801792"/>
-        <c:axId val="88489604"/>
+        <c:axId val="69883159"/>
+        <c:axId val="85214563"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="22801792"/>
+        <c:axId val="69883159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -817,11 +1036,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="88489604"/>
+        <c:crossAx val="85214563"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88489604"/>
+        <c:axId val="85214563"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,7 +1065,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="22801792"/>
+        <c:crossAx val="69883159"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -886,15 +1105,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>307080</xdr:colOff>
+      <xdr:colOff>174600</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
+      <xdr:colOff>6120</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -902,7 +1121,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5996520" y="2142360"/>
+        <a:off x="5864040" y="2103840"/>
         <a:ext cx="5520960" cy="3461400"/>
       </xdr:xfrm>
       <a:graphic>
@@ -921,10 +1140,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -933,662 +1152,829 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="6" t="n">
         <v>253</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="6" t="n">
         <v>274</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="6" t="n">
         <v>254</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="7" t="n">
         <f aca="false">((B2-D2)/D2)*100</f>
         <v>-0.393700787401575</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="7" t="n">
         <f aca="false">((C2-D2)/D2)*100</f>
         <v>7.8740157480315</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(E2,$E$13,$E$15,TRUE())</f>
-        <v>0.337027764782624</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(F2,$F$13,$F$15,TRUE())</f>
-        <v>0.316377826955066</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <f aca="false">_xlfn.NORM.S.INV(I2)</f>
-        <v>-0.420588586420774</v>
-      </c>
-      <c r="L2" s="6" t="n">
+      <c r="I2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <f aca="false">_xlfn.NORM.DIST(I2,$H$6,$H$8,1)</f>
+        <v>0.0685997502074813</v>
+      </c>
+      <c r="K2" s="10" t="n">
         <f aca="false">_xlfn.NORM.S.INV(J2)</f>
-        <v>-0.47785185016604</v>
-      </c>
-      <c r="M2" s="6" t="n">
-        <f aca="false">_xlfn.NORM.INV(I2,$E$13,$E$15)</f>
-        <v>-0.393700787401573</v>
-      </c>
-      <c r="N2" s="6" t="n">
+        <v>-1.48630108292059</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10" t="n">
+        <f aca="false">_xlfn.NORM.INV(J2,$E$13,$E$15)</f>
+        <v>-14.0990136731528</v>
+      </c>
+      <c r="N2" s="10" t="n">
         <f aca="false">_xlfn.NORM.INV(J2,$F$13,$F$15)</f>
-        <v>7.8740157480315</v>
+        <v>-6.801524053921</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="n">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="n">
         <v>277</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="6" t="n">
         <v>344</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="6" t="n">
         <v>269</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="7" t="n">
         <f aca="false">((B3-D3)/D3)*100</f>
         <v>2.97397769516729</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="7" t="n">
         <f aca="false">((C3-D3)/D3)*100</f>
         <v>27.8810408921933</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(E3,$E$13,$E$15,TRUE())</f>
-        <v>0.436944341454939</v>
-      </c>
-      <c r="J3" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(F3,$F$13,$F$15,TRUE())</f>
-        <v>0.815129198813557</v>
-      </c>
-      <c r="K3" s="6" t="n">
-        <f aca="false">_xlfn.NORM.S.INV(I3)</f>
-        <v>-0.158721011927204</v>
-      </c>
-      <c r="L3" s="6" t="n">
+      <c r="H3" s="11"/>
+      <c r="I3" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <f aca="false">_xlfn.NORM.DIST(I3,$H$6,$H$8,1)</f>
+        <v>0.123838133845947</v>
+      </c>
+      <c r="K3" s="10" t="n">
         <f aca="false">_xlfn.NORM.S.INV(J3)</f>
-        <v>0.896957487589738</v>
-      </c>
-      <c r="M3" s="6" t="n">
-        <f aca="false">_xlfn.NORM.INV(I3,$E$13,$E$15)</f>
-        <v>2.97397769516729</v>
-      </c>
-      <c r="N3" s="6" t="n">
+        <v>-1.15601195338268</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10" t="n">
+        <f aca="false">_xlfn.NORM.INV(J3,$E$13,$E$15)</f>
+        <v>-9.85141793044846</v>
+      </c>
+      <c r="N3" s="10" t="n">
         <f aca="false">_xlfn.NORM.INV(J3,$F$13,$F$15)</f>
-        <v>27.8810408921933</v>
+        <v>-1.99496452742315</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="n">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="n">
         <v>417</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="6" t="n">
         <v>462</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="6" t="n">
         <v>431</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="7" t="n">
         <f aca="false">((B4-D4)/D4)*100</f>
         <v>-3.24825986078886</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="7" t="n">
         <f aca="false">((C4-D4)/D4)*100</f>
         <v>7.19257540603248</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(E4,$E$13,$E$15,TRUE())</f>
-        <v>0.260255968565225</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(F4,$F$13,$F$15,TRUE())</f>
-        <v>0.299903551270518</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <f aca="false">_xlfn.NORM.S.INV(I4)</f>
-        <v>-0.642556468647565</v>
-      </c>
-      <c r="L4" s="6" t="n">
+      <c r="H4" s="11"/>
+      <c r="I4" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <f aca="false">_xlfn.NORM.DIST(I4,$H$6,$H$8,1)</f>
+        <v>0.204480671018437</v>
+      </c>
+      <c r="K4" s="10" t="n">
         <f aca="false">_xlfn.NORM.S.INV(J4)</f>
-        <v>-0.524677929433358</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <f aca="false">_xlfn.NORM.INV(I4,$E$13,$E$15)</f>
-        <v>-3.24825986078886</v>
-      </c>
-      <c r="N4" s="6" t="n">
+        <v>-0.82572282384477</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="n">
+        <f aca="false">_xlfn.NORM.INV(J4,$E$13,$E$15)</f>
+        <v>-5.60382218774408</v>
+      </c>
+      <c r="N4" s="10" t="n">
         <f aca="false">_xlfn.NORM.INV(J4,$F$13,$F$15)</f>
-        <v>7.19257540603248</v>
+        <v>2.8115949990747</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="n">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="n">
         <v>404</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="6" t="n">
         <v>466</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="6" t="n">
         <v>415</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="7" t="n">
         <f aca="false">((B5-D5)/D5)*100</f>
         <v>-2.65060240963855</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="7" t="n">
         <f aca="false">((C5-D5)/D5)*100</f>
         <v>12.289156626506</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(E5,$E$13,$E$15,TRUE())</f>
-        <v>0.275559831326853</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(F5,$F$13,$F$15,TRUE())</f>
-        <v>0.430752149579753</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <f aca="false">_xlfn.NORM.S.INV(I5)</f>
-        <v>-0.596083176164086</v>
-      </c>
-      <c r="L5" s="6" t="n">
+      <c r="H5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <f aca="false">_xlfn.NORM.DIST(I5,$H$6,$H$8,1)</f>
+        <v>0.310147007674581</v>
+      </c>
+      <c r="K5" s="10" t="n">
         <f aca="false">_xlfn.NORM.S.INV(J5)</f>
-        <v>-0.174459573528387</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <f aca="false">_xlfn.NORM.INV(I5,$E$13,$E$15)</f>
-        <v>-2.65060240963855</v>
-      </c>
-      <c r="N5" s="6" t="n">
+        <v>-0.495433694306862</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10" t="n">
+        <f aca="false">_xlfn.NORM.INV(J5,$E$13,$E$15)</f>
+        <v>-1.35622644503969</v>
+      </c>
+      <c r="N5" s="10" t="n">
         <f aca="false">_xlfn.NORM.INV(J5,$F$13,$F$15)</f>
-        <v>12.289156626506</v>
+        <v>7.61815452557256</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="n">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="n">
         <v>409</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="6" t="n">
         <v>464</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="6" t="n">
         <v>415</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="7" t="n">
         <f aca="false">((B6-D6)/D6)*100</f>
         <v>-1.44578313253012</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="7" t="n">
         <f aca="false">((C6-D6)/D6)*100</f>
         <v>11.8072289156627</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(E6,$E$13,$E$15,TRUE())</f>
-        <v>0.307693954643361</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(F6,$F$13,$F$15,TRUE())</f>
-        <v>0.417780070714552</v>
-      </c>
-      <c r="K6" s="6" t="n">
-        <f aca="false">_xlfn.NORM.S.INV(I6)</f>
-        <v>-0.502397539773163</v>
-      </c>
-      <c r="L6" s="6" t="n">
+      <c r="H6" s="0" t="n">
+        <f aca="false">AVERAGE(I2:I11)</f>
+        <v>5.5</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <f aca="false">_xlfn.NORM.DIST(I6,$H$6,$H$8,1)</f>
+        <v>0.434415098462657</v>
+      </c>
+      <c r="K6" s="10" t="n">
         <f aca="false">_xlfn.NORM.S.INV(J6)</f>
-        <v>-0.207575877037611</v>
-      </c>
-      <c r="M6" s="6" t="n">
-        <f aca="false">_xlfn.NORM.INV(I6,$E$13,$E$15)</f>
-        <v>-1.44578313253012</v>
-      </c>
-      <c r="N6" s="6" t="n">
+        <v>-0.165144564768954</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="n">
+        <f aca="false">_xlfn.NORM.INV(J6,$E$13,$E$15)</f>
+        <v>2.89136929766469</v>
+      </c>
+      <c r="N6" s="10" t="n">
         <f aca="false">_xlfn.NORM.INV(J6,$F$13,$F$15)</f>
-        <v>11.8072289156627</v>
+        <v>12.4247140520704</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="n">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="n">
         <v>426</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="6" t="n">
         <v>433</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="6" t="n">
         <v>398</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="7" t="n">
         <f aca="false">((B7-D7)/D7)*100</f>
         <v>7.03517587939699</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="7" t="n">
         <f aca="false">((C7-D7)/D7)*100</f>
         <v>8.79396984924623</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(E7,$E$13,$E$15,TRUE())</f>
-        <v>0.562406741923588</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(F7,$F$13,$F$15,TRUE())</f>
-        <v>0.339204202112389</v>
-      </c>
-      <c r="K7" s="6" t="n">
-        <f aca="false">_xlfn.NORM.S.INV(I7)</f>
-        <v>0.15707401528415</v>
-      </c>
-      <c r="L7" s="6" t="n">
+      <c r="H7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <f aca="false">_xlfn.NORM.DIST(I7,$H$6,$H$8,1)</f>
+        <v>0.565584901537343</v>
+      </c>
+      <c r="K7" s="10" t="n">
         <f aca="false">_xlfn.NORM.S.INV(J7)</f>
-        <v>-0.414635980762997</v>
-      </c>
-      <c r="M7" s="6" t="n">
-        <f aca="false">_xlfn.NORM.INV(I7,$E$13,$E$15)</f>
-        <v>7.03517587939699</v>
-      </c>
-      <c r="N7" s="6" t="n">
+        <v>0.165144564768954</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10" t="n">
+        <f aca="false">_xlfn.NORM.INV(J7,$E$13,$E$15)</f>
+        <v>7.13896504036907</v>
+      </c>
+      <c r="N7" s="10" t="n">
         <f aca="false">_xlfn.NORM.INV(J7,$F$13,$F$15)</f>
-        <v>8.79396984924623</v>
+        <v>17.2312735785683</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="6" t="n">
         <v>393</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="6" t="n">
         <v>394</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="6" t="n">
         <v>384</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="7" t="n">
         <f aca="false">((B8-D8)/D8)*100</f>
         <v>2.34375</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="7" t="n">
         <f aca="false">((C8-D8)/D8)*100</f>
         <v>2.60416666666667</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(E8,$E$13,$E$15,TRUE())</f>
-        <v>0.417721092043253</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(F8,$F$13,$F$15,TRUE())</f>
-        <v>0.200460770880553</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <f aca="false">_xlfn.NORM.S.INV(I8)</f>
-        <v>-0.207726936562337</v>
-      </c>
-      <c r="L8" s="6" t="n">
+      <c r="H8" s="9" t="n">
+        <f aca="false">STDEV(I2:I11)</f>
+        <v>3.02765035409749</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <f aca="false">_xlfn.NORM.DIST(I8,$H$6,$H$8,1)</f>
+        <v>0.689852992325419</v>
+      </c>
+      <c r="K8" s="10" t="n">
         <f aca="false">_xlfn.NORM.S.INV(J8)</f>
-        <v>-0.839976537540576</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <f aca="false">_xlfn.NORM.INV(I8,$E$13,$E$15)</f>
-        <v>2.34375</v>
-      </c>
-      <c r="N8" s="6" t="n">
+        <v>0.495433694306862</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10" t="n">
+        <f aca="false">_xlfn.NORM.INV(J8,$E$13,$E$15)</f>
+        <v>11.3865607830735</v>
+      </c>
+      <c r="N8" s="10" t="n">
         <f aca="false">_xlfn.NORM.INV(J8,$F$13,$F$15)</f>
-        <v>2.60416666666667</v>
+        <v>22.0378331050661</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="6" t="n">
         <v>643</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="6" t="n">
         <v>684</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="6" t="n">
         <v>628</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="7" t="n">
         <f aca="false">((B9-D9)/D9)*100</f>
         <v>2.38853503184713</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="7" t="n">
         <f aca="false">((C9-D9)/D9)*100</f>
         <v>8.9171974522293</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(E9,$E$13,$E$15,TRUE())</f>
-        <v>0.419081221556133</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(F9,$F$13,$F$15,TRUE())</f>
-        <v>0.3423094970631</v>
-      </c>
-      <c r="K9" s="6" t="n">
-        <f aca="false">_xlfn.NORM.S.INV(I9)</f>
-        <v>-0.204244493768547</v>
-      </c>
-      <c r="L9" s="6" t="n">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <f aca="false">_xlfn.NORM.DIST(I9,$H$6,$H$8,1)</f>
+        <v>0.795519328981563</v>
+      </c>
+      <c r="K9" s="10" t="n">
         <f aca="false">_xlfn.NORM.S.INV(J9)</f>
-        <v>-0.406168232158211</v>
-      </c>
-      <c r="M9" s="6" t="n">
-        <f aca="false">_xlfn.NORM.INV(I9,$E$13,$E$15)</f>
-        <v>2.38853503184713</v>
-      </c>
-      <c r="N9" s="6" t="n">
+        <v>0.82572282384477</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10" t="n">
+        <f aca="false">_xlfn.NORM.INV(J9,$E$13,$E$15)</f>
+        <v>15.6341565257778</v>
+      </c>
+      <c r="N9" s="10" t="n">
         <f aca="false">_xlfn.NORM.INV(J9,$F$13,$F$15)</f>
-        <v>8.9171974522293</v>
+        <v>26.844392631564</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="6" t="n">
         <v>591</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="6" t="n">
         <v>629</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="6" t="n">
         <v>576</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="7" t="n">
         <f aca="false">((B10-D10)/D10)*100</f>
         <v>2.60416666666667</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="7" t="n">
         <f aca="false">((C10-D10)/D10)*100</f>
         <v>9.20138888888889</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(E10,$E$13,$E$15,TRUE())</f>
-        <v>0.425643258423115</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(F10,$F$13,$F$15,TRUE())</f>
-        <v>0.349511503839499</v>
-      </c>
-      <c r="K10" s="6" t="n">
-        <f aca="false">_xlfn.NORM.S.INV(I10)</f>
-        <v>-0.187477176613258</v>
-      </c>
-      <c r="L10" s="6" t="n">
+      <c r="G10" s="11"/>
+      <c r="I10" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <f aca="false">_xlfn.NORM.DIST(I10,$H$6,$H$8,1)</f>
+        <v>0.876161866154053</v>
+      </c>
+      <c r="K10" s="10" t="n">
         <f aca="false">_xlfn.NORM.S.INV(J10)</f>
-        <v>-0.386639639675593</v>
-      </c>
-      <c r="M10" s="6" t="n">
-        <f aca="false">_xlfn.NORM.INV(I10,$E$13,$E$15)</f>
-        <v>2.60416666666667</v>
-      </c>
-      <c r="N10" s="6" t="n">
+        <v>1.15601195338268</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10" t="n">
+        <f aca="false">_xlfn.NORM.INV(J10,$E$13,$E$15)</f>
+        <v>19.8817522684822</v>
+      </c>
+      <c r="N10" s="10" t="n">
         <f aca="false">_xlfn.NORM.INV(J10,$F$13,$F$15)</f>
-        <v>9.20138888888889</v>
+        <v>31.6509521580618</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="6" t="n">
         <v>981</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="6" t="n">
         <v>1059</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="6" t="n">
         <v>698</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="7" t="n">
         <f aca="false">((B11-D11)/D11)*100</f>
         <v>40.5444126074499</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="7" t="n">
         <f aca="false">((C11-D11)/D11)*100</f>
         <v>51.7191977077364</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(E11,$E$13,$E$15,TRUE())</f>
-        <v>0.997133916224625</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <f aca="false">_xlfn.NORM.DIST(F11,$F$13,$F$15,TRUE())</f>
-        <v>0.994378085209512</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <f aca="false">_xlfn.NORM.S.INV(I11)</f>
-        <v>2.76272137459279</v>
-      </c>
-      <c r="L11" s="6" t="n">
+      <c r="G11" s="11"/>
+      <c r="I11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <f aca="false">_xlfn.NORM.DIST(I11,$H$6,$H$8,1)</f>
+        <v>0.931400249792519</v>
+      </c>
+      <c r="K11" s="10" t="n">
         <f aca="false">_xlfn.NORM.S.INV(J11)</f>
-        <v>2.53502813271304</v>
-      </c>
-      <c r="M11" s="6" t="n">
-        <f aca="false">_xlfn.NORM.INV(I11,$E$13,$E$15)</f>
-        <v>40.5444126074499</v>
-      </c>
-      <c r="N11" s="6" t="n">
+        <v>1.48630108292059</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10" t="n">
+        <f aca="false">_xlfn.NORM.INV(J11,$E$13,$E$15)</f>
+        <v>24.1293480111866</v>
+      </c>
+      <c r="N11" s="10" t="n">
         <f aca="false">_xlfn.NORM.INV(J11,$F$13,$F$15)</f>
-        <v>51.7191977077364</v>
+        <v>36.4575116845597</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="15" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
         <v>479.4</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="15" t="n">
         <f aca="false">AVERAGE(C2:C11)</f>
         <v>520.9</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="n">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="n">
         <f aca="false">AVERAGE(E2:E11)</f>
         <v>5.01516716901688</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="15" t="n">
         <f aca="false">AVERAGE(F2:F11)</f>
         <v>14.8279938153193</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="18" t="n">
         <f aca="false">STDEV(B2:B11)</f>
         <v>212.889225237498</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="18" t="n">
         <f aca="false">STDEV(C2:C11)</f>
         <v>224.510059165879</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="n">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="n">
         <f aca="false">STDEV(E2:E11)</f>
         <v>12.8602347544619</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="18" t="n">
         <f aca="false">STDEV(F2:F11)</f>
         <v>14.5525816523919</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="22" t="n">
         <f aca="false">COUNT(B2:B11)</f>
         <v>10</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="22" t="n">
         <f aca="false">COUNT(C2:C11)</f>
         <v>10</v>
       </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="14" t="n">
+      <c r="B18" s="25" t="n">
         <v>18</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="14" t="n">
+      <c r="B19" s="25" t="n">
         <f aca="false">ABS(B13-C13)</f>
         <v>41.5</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="A20" s="27"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="29" t="n">
         <f aca="false">B19/SQRT(((B17-1)*B15^2+(C17-1)*C15^2)/(B17+C17-2)*((B17+C17)/(B17*C17)))</f>
         <v>0.424162045658375</v>
       </c>
+      <c r="D21" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="10" t="n">
+      <c r="A22" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="32" t="n">
         <f aca="false">TDIST(B21,B18,2)</f>
         <v>0.67647370710908</v>
       </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <f aca="false">C2-B2</f>
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <f aca="false">ABS(B26)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <f aca="false">C3-B3</f>
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>-9</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <f aca="false">ABS(B27)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <f aca="false">C4-B4</f>
+        <v>45</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>-6</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <f aca="false">ABS(B28)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <f aca="false">C5-B5</f>
+        <v>62</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <f aca="false">ABS(B29)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <f aca="false">C6-B6</f>
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>-7</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <f aca="false">ABS(B30)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <f aca="false">C7-B7</f>
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <f aca="false">ABS(B31)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <f aca="false">C8-B8</f>
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <f aca="false">ABS(B32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <f aca="false">C9-B9</f>
+        <v>41</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <f aca="false">ABS(B33)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <f aca="false">C10-B10</f>
+        <v>38</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>-4</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <f aca="false">ABS(B34)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <f aca="false">C11-B11</f>
+        <v>78</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <f aca="false">ABS(B35)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="22" t="n">
+        <f aca="false">SUM(C26:C35)</f>
+        <v>55</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="40"/>
+      <c r="C39" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="43"/>
+      <c r="E40" s="39"/>
+    </row>
+    <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D21:F22"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A41:E41"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Test/Test.xlsx
+++ b/Test/Test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Tabu Search</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>Rank</t>
-  </si>
-  <si>
-    <t>Rank ABS</t>
   </si>
   <si>
     <t>Somma positivi</t>
@@ -298,7 +295,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -437,6 +434,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1016,11 +1021,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="69883159"/>
-        <c:axId val="85214563"/>
+        <c:axId val="40713289"/>
+        <c:axId val="99790513"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69883159"/>
+        <c:axId val="40713289"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,11 +1041,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85214563"/>
+        <c:crossAx val="99790513"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85214563"/>
+        <c:axId val="99790513"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1070,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="69883159"/>
+        <c:crossAx val="40713289"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1142,8 +1147,8 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1782,9 +1787,7 @@
       <c r="B25" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="34" t="s">
-        <v>31</v>
-      </c>
+      <c r="C25" s="35"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -1792,12 +1795,9 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <f aca="false">ABS(B26)</f>
         <v>3</v>
       </c>
+      <c r="C26" s="36"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -1805,12 +1805,9 @@
         <v>67</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>-9</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <f aca="false">ABS(B27)</f>
         <v>9</v>
       </c>
+      <c r="C27" s="36"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -1818,12 +1815,9 @@
         <v>45</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>-6</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <f aca="false">ABS(B28)</f>
         <v>6</v>
       </c>
+      <c r="C28" s="36"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -1831,12 +1825,9 @@
         <v>62</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>-8</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <f aca="false">ABS(B29)</f>
         <v>8</v>
       </c>
+      <c r="C29" s="36"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -1844,12 +1835,9 @@
         <v>55</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>-7</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <f aca="false">ABS(B30)</f>
         <v>7</v>
       </c>
+      <c r="C30" s="36"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
@@ -1857,12 +1845,9 @@
         <v>7</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <f aca="false">ABS(B31)</f>
         <v>2</v>
       </c>
+      <c r="C31" s="36"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
@@ -1870,12 +1855,9 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <f aca="false">ABS(B32)</f>
         <v>1</v>
       </c>
+      <c r="C32" s="36"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -1883,12 +1865,9 @@
         <v>41</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <f aca="false">ABS(B33)</f>
         <v>5</v>
       </c>
+      <c r="C33" s="36"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -1896,12 +1875,9 @@
         <v>38</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>-4</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <f aca="false">ABS(B34)</f>
         <v>4</v>
       </c>
+      <c r="C34" s="36"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -1909,65 +1885,62 @@
         <v>78</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>-10</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <f aca="false">ABS(B35)</f>
         <v>10</v>
       </c>
+      <c r="C35" s="36"/>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="22" t="n">
         <f aca="false">SUM(C26:C35)</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="39" t="s">
         <v>33</v>
-      </c>
-      <c r="E37" s="36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="37" t="s">
-        <v>34</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="42"/>
+      <c r="C39" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="40"/>
-      <c r="C39" s="41" t="s">
+      <c r="D39" s="43"/>
+      <c r="E39" s="44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="45"/>
+      <c r="E40" s="41"/>
+    </row>
+    <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="43"/>
-      <c r="E40" s="39"/>
-    </row>
-    <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Test/Test.xlsx
+++ b/Test/Test.xlsx
@@ -125,7 +125,7 @@
     <t>Critical 2T (0.05)</t>
   </si>
   <si>
-    <t>Il test di Wilcoxon ha dimostrato che ci sono delle differenze sostanziali tra i risultati dei due algoritmi: il Simulated Annealing è inferiore al Tabu Search</t>
+    <t>Il test di Wilcoxon ha dimostrato che ci sono delle differenze sostanziali tra i risultati dei due algoritmi: il Simulated Annealing è meno efficiente del Tabu Search</t>
   </si>
 </sst>
 </file>
@@ -1021,11 +1021,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="40713289"/>
-        <c:axId val="99790513"/>
+        <c:axId val="55565035"/>
+        <c:axId val="53340860"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40713289"/>
+        <c:axId val="55565035"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,11 +1041,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="99790513"/>
+        <c:crossAx val="53340860"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99790513"/>
+        <c:axId val="53340860"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1070,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="40713289"/>
+        <c:crossAx val="55565035"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
